--- a/Pages/Projects/Coin Toss.xlsx
+++ b/Pages/Projects/Coin Toss.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f6d8b9a31d0001ed/Website/bretallinott.github.io/Pages/Projects/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bret\OneDrive\Website\bretallinott.github.io\Pages\Projects\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0F1A46C1-5DA0-45A2-8445-3C4CBF63837D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="8_{0F1A46C1-5DA0-45A2-8445-3C4CBF63837D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{8115549B-FF71-427A-AA76-21B8A7ABE756}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,8 +19,8 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
-    <pivotCache cacheId="7" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
+    <pivotCache cacheId="1" r:id="rId5"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Trial</t>
   </si>
@@ -113,12 +113,104 @@
   <si>
     <t>Count of 2nd Coin</t>
   </si>
+  <si>
+    <t>S.D=</t>
+  </si>
+  <si>
+    <t>Is coin 2 "fair"?</t>
+  </si>
+  <si>
+    <t>Is coin 1 "fair"?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">95% Confidence </t>
+  </si>
+  <si>
+    <t>"Fair"?</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Critical t-score=</t>
+  </si>
+  <si>
+    <t>T-score=</t>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum=20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>H</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>A:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sum</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≠20</t>
+    </r>
+  </si>
+  <si>
+    <t>Sum=</t>
+  </si>
+  <si>
+    <t>"Fair Sum"=</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +250,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -200,7 +305,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -216,6 +321,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4265,6 +4385,281 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FA2487-64E6-4834-A6CE-9EA0D44D36A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11096624" y="2990850"/>
+              <a:ext cx="2895601" cy="1343025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>Two-tailed t-test at 95% confidence determined that we fail</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> to reject the null hypothesis for coin 1. For coin 2, we reject the null hypothesis. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>        </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑡</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>−</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑠𝑐𝑜𝑟𝑒</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:d>
+                        <m:dPr>
+                          <m:ctrlPr>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:dPr>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑆𝑢𝑚</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>−"</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝐹𝑎𝑖𝑟</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑆𝑢𝑚</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>"</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:d>
+                    </m:num>
+                    <m:den>
+                      <m:r>
+                        <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝑆</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>.</m:t>
+                      </m:r>
+                      <m:r>
+                        <a:rPr lang="en-CA" sz="1200" b="0" i="1" baseline="0">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                        <m:t>𝐷</m:t>
+                      </m:r>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="TextBox 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86FA2487-64E6-4834-A6CE-9EA0D44D36A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11096624" y="2990850"/>
+              <a:ext cx="2895601" cy="1343025"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:ln w="9525" cmpd="sng">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:shade val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100"/>
+                <a:t>Two-tailed t-test at 95% confidence determined that we fail</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" baseline="0"/>
+                <a:t> to reject the null hypothesis for coin 1. For coin 2, we reject the null hypothesis. </a:t>
+              </a:r>
+            </a:p>
+            <a:p>
+              <a:endParaRPr lang="en-CA" sz="1100" baseline="0"/>
+            </a:p>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1100" b="0" i="0" baseline="0">
+                  <a:latin typeface="+mn-lt"/>
+                </a:rPr>
+                <a:t>        </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="en-CA" sz="1200" b="0" i="0" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑡−𝑠𝑐𝑜𝑟𝑒=((𝑆𝑢𝑚−"𝐹𝑎𝑖𝑟 𝑆𝑢𝑚"))/(𝑆.𝐷)</a:t>
+              </a:r>
+              <a:endParaRPr lang="en-CA" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4643,7 +5038,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{046F858B-AF00-4CFB-977E-4080084E9CCC}" name="PivotTable1" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{046F858B-AF00-4CFB-977E-4080084E9CCC}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -4740,7 +5135,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D690407-EA21-4D30-AC78-D178D4ED2080}" name="PivotTable3" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{7D690407-EA21-4D30-AC78-D178D4ED2080}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="10">
   <location ref="A1:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="1">
     <pivotField axis="axisRow" dataField="1" showAll="0">
@@ -5223,10 +5618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="W23" sqref="W23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5237,15 +5632,19 @@
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="17" max="17" width="6.28515625" customWidth="1"/>
+    <col min="18" max="18" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="9.140625" style="13"/>
+    <col min="21" max="21" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -5255,8 +5654,14 @@
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="S2" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="U2" s="11" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5269,8 +5674,14 @@
       <c r="E3" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="S3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="U3" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -5287,8 +5698,14 @@
         <f>AVERAGE(B3:B42)</f>
         <v>0.52500000000000002</v>
       </c>
+      <c r="S4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="13" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -5306,7 +5723,7 @@
         <v>0.24937500000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -5323,8 +5740,17 @@
         <f>_xlfn.STDEV.P(B3:B42)</f>
         <v>0.49937460888595447</v>
       </c>
+      <c r="R6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S6" s="13">
+        <v>0.51</v>
+      </c>
+      <c r="U6" s="12">
+        <v>0.47</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5334,8 +5760,17 @@
       <c r="C7">
         <v>1</v>
       </c>
+      <c r="R7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="S7" s="13">
+        <v>21</v>
+      </c>
+      <c r="U7" s="12">
+        <v>27</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5348,8 +5783,17 @@
       <c r="E8" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="R8" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="S8" s="13">
+        <v>20</v>
+      </c>
+      <c r="U8" s="12">
+        <v>20</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5367,7 +5811,7 @@
         <v>0.67500000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5384,8 +5828,19 @@
         <f>_xlfn.VAR.P(C3:C42)</f>
         <v>0.21937499999999999</v>
       </c>
+      <c r="R10" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="S10" s="13">
+        <f>(S7-S8)/S6</f>
+        <v>1.9607843137254901</v>
+      </c>
+      <c r="U10" s="12">
+        <f>(U7-U8)/U6</f>
+        <v>14.893617021276597</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5402,8 +5857,17 @@
         <f>_xlfn.STDEV.P(C3:C42)</f>
         <v>0.46837484987987987</v>
       </c>
+      <c r="R11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="S11" s="13">
+        <v>2.02</v>
+      </c>
+      <c r="U11" s="12">
+        <v>2.02</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5413,8 +5877,17 @@
       <c r="C12">
         <v>1</v>
       </c>
+      <c r="R12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S12" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="U12" s="12" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5425,7 +5898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5443,8 +5916,11 @@
         <v>21</v>
       </c>
       <c r="H14" s="7"/>
+      <c r="T14" s="15" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5459,7 +5935,7 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
